--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
+    <sheet name="validcreds" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Teams</t>
   </si>
@@ -80,6 +81,21 @@
   </si>
   <si>
     <t>Sanju S</t>
+  </si>
+  <si>
+    <t>OWNER</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -144,10 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,9 +469,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
@@ -463,15 +480,18 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,7 +499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -487,7 +507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -495,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,7 +531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -519,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -527,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -535,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,16 +563,55 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/E1NewSeleniumProject/data/testData.xlsx
+++ b/E1NewSeleniumProject/data/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ipl" sheetId="1" r:id="rId1"/>
     <sheet name="validcreds" sheetId="2" r:id="rId2"/>
+    <sheet name="invalidcreds" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Teams</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Sanju S</t>
   </si>
   <si>
-    <t>OWNER</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -96,6 +94,24 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>Admin@</t>
+  </si>
+  <si>
+    <t>Manager@123</t>
+  </si>
+  <si>
+    <t>qspiders</t>
+  </si>
+  <si>
+    <t>actitime</t>
+  </si>
+  <si>
+    <t>testyantra</t>
+  </si>
+  <si>
+    <t>fireflink</t>
   </si>
 </sst>
 </file>
@@ -469,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,18 +496,15 @@
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -499,7 +512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,7 +520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,7 +528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -523,7 +536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -531,7 +544,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -539,7 +552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -555,7 +568,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -563,17 +576,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -586,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -597,18 +605,93 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
